--- a/INFO/info_archivo1.xlsx
+++ b/INFO/info_archivo1.xlsx
@@ -528,10 +528,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -540,13 +540,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -560,10 +560,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -607,10 +607,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -656,10 +656,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -688,10 +688,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -700,10 +700,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -720,10 +720,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -732,13 +732,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
